--- a/Supplementary Data 3.3.xlsx
+++ b/Supplementary Data 3.3.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehartman/Dropbox/Manuscripts/Compartments/Emily Hartman FG Epi/First submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehartman/Dropbox/Lab Members/Emily/Thesis/Chapter 3 Epi/Supplementary Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA27AAEE-8ADA-2142-AAC3-AE36E4A8AB27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
   <si>
     <t>GCATGGCGTTCGTACTTATGCATGGAACTAACCATTCC</t>
   </si>
@@ -313,13 +319,115 @@
   </si>
   <si>
     <t>Primers for individual variant construction</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagAAAtacaccaccaacCGCctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagAAGtacaccaccaacATGctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagATTtacaccaccaacATGctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagAGAtacaccaccaacATGctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagATAtacaccaccaacATGctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagATGtacaccaccaacAGActgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagctctacaccaccATGATGctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagctctacaccaccCTTATGctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagctctacaccaccATGCTTctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagctctacaccaccATGACGctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagctctacaccaccCTTACGctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagctctacaccaccCCGACGctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagAGAtacaccaccCCCagtctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagCGCtacaccaccCTGagtctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagATGtacaccaccAGAagtctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagATGtacaccaccAGTagtctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCTACaggaagGTAtacaccaccAGTagtctgggttgccactttaggca</t>
+  </si>
+  <si>
+    <t>71A / 76F</t>
+  </si>
+  <si>
+    <t>71H / 76L</t>
+  </si>
+  <si>
+    <t>71H / 76N</t>
+  </si>
+  <si>
+    <t>71H / 76S</t>
+  </si>
+  <si>
+    <t>71H / 76Y</t>
+  </si>
+  <si>
+    <t>71S / 76H</t>
+  </si>
+  <si>
+    <t>71H / 72H</t>
+  </si>
+  <si>
+    <t>71H / 72K</t>
+  </si>
+  <si>
+    <t>71K / 72H</t>
+  </si>
+  <si>
+    <t>71R / 72H</t>
+  </si>
+  <si>
+    <t>71R / 72K</t>
+  </si>
+  <si>
+    <t>71R / 72R</t>
+  </si>
+  <si>
+    <t>72G / 76S</t>
+  </si>
+  <si>
+    <t>72Q / 76A</t>
+  </si>
+  <si>
+    <t>72S / 76H</t>
+  </si>
+  <si>
+    <t>72T / 76H</t>
+  </si>
+  <si>
+    <t>72T / 76Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,27 +439,32 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -373,11 +486,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -385,6 +500,13 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -409,7 +531,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,6 +543,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -432,6 +555,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -699,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1271,11 +1397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2093,7 +2219,7 @@
         <v>47</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" ref="D46:D50" si="1">LEN(B46)</f>
+        <f t="shared" ref="D46:D70" si="1">LEN(B46)</f>
         <v>38</v>
       </c>
       <c r="E46" s="9" t="s">
@@ -2196,6 +2322,366 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
+    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
+        <v>45</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>46</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
+        <v>47</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
+        <v>48</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
+        <v>49</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
+        <v>50</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
+        <v>51</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
+        <v>52</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
+        <v>53</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
+        <v>54</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
+        <v>55</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
+        <v>56</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
+        <v>57</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
+        <v>58</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
+        <v>59</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
+        <v>60</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>61</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
+        <v>62</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>63</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
+        <v>64</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
